--- a/data/trans_dic/P13A_1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9416547606905045</v>
+        <v>0.9416547606905046</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9558954924933576</v>
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.7981663877904789</v>
+        <v>0.7864100511110568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8110266573348104</v>
+        <v>0.8182725211975823</v>
       </c>
     </row>
     <row r="6">
@@ -618,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9771656739490266</v>
+        <v>0.9771656739490269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9823959802319198</v>
+        <v>0.9823959802319199</v>
       </c>
     </row>
     <row r="8">
@@ -633,10 +633,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.910796900188685</v>
+        <v>0.9094502736740003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9306417125952524</v>
+        <v>0.9313615493845484</v>
       </c>
     </row>
     <row r="9">
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9594473284433901</v>
+        <v>0.9594473284433903</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.9682490014397652</v>
@@ -684,10 +684,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.8767642145914379</v>
+        <v>0.8641300585256437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8781077687379</v>
+        <v>0.8906879888337833</v>
       </c>
     </row>
     <row r="12">
@@ -720,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.898622439145788</v>
+        <v>0.8986224391457879</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9094235469925873</v>
+        <v>0.9094235469925872</v>
       </c>
     </row>
     <row r="14">
@@ -735,10 +735,10 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.7342407054941488</v>
+        <v>0.7371463657750675</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7419706655158644</v>
+        <v>0.7388323971013141</v>
       </c>
     </row>
     <row r="15">
@@ -750,10 +750,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.9715544789845511</v>
+        <v>0.9729278551124371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9771554506272145</v>
+        <v>0.9725581992568471</v>
       </c>
     </row>
     <row r="16">
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9435065701824737</v>
+        <v>0.9435065701824735</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.9545434187860116</v>
@@ -786,10 +786,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.8895702521943534</v>
+        <v>0.8873155270420866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9100689901674069</v>
+        <v>0.9085105872239492</v>
       </c>
     </row>
     <row r="18">
@@ -801,10 +801,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.9727628384682264</v>
+        <v>0.9725621456740506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9776950480371631</v>
+        <v>0.9791373958151877</v>
       </c>
     </row>
     <row r="19">
@@ -947,10 +947,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>21372</v>
+        <v>21057</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>28728</v>
+        <v>28985</v>
       </c>
     </row>
     <row r="7">
@@ -1015,10 +1015,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>45747</v>
+        <v>45679</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>60631</v>
+        <v>60678</v>
       </c>
     </row>
     <row r="11">
@@ -1083,10 +1083,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>32868</v>
+        <v>32395</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>42044</v>
+        <v>42646</v>
       </c>
     </row>
     <row r="15">
@@ -1151,10 +1151,10 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>36620</v>
+        <v>36765</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41419</v>
+        <v>41244</v>
       </c>
     </row>
     <row r="19">
@@ -1166,10 +1166,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>48456</v>
+        <v>48525</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>54548</v>
+        <v>54291</v>
       </c>
     </row>
     <row r="20">
@@ -1219,10 +1219,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>146215</v>
+        <v>145845</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>185904</v>
+        <v>185586</v>
       </c>
     </row>
     <row r="23">
@@ -1234,10 +1234,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>159889</v>
+        <v>159856</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>199719</v>
+        <v>200013</v>
       </c>
     </row>
     <row r="24">
